--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,138 +40,138 @@
     <t>name</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>loved</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>husband</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
+    <t>ever</t>
+  </si>
+  <si>
     <t>gift</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>popcorn</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>tea</t>
   </si>
   <si>
@@ -181,12 +181,15 @@
     <t>good</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>works</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
@@ -196,10 +199,13 @@
     <t>recommend</t>
   </si>
   <si>
+    <t>makes</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>makes</t>
+    <t>little</t>
   </si>
   <si>
     <t>coffee</t>
@@ -208,22 +214,25 @@
     <t>quality</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>use</t>
@@ -587,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4141414141414141</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -698,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -706,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3953488372093023</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -748,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -782,13 +791,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8828125</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +817,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8730650154798761</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="L7">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M7">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +843,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8695652173913043</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -852,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -860,13 +869,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -878,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -886,13 +895,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7316017316017316</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="L10">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="M10">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -904,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -912,13 +921,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.7111111111111111</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -930,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -938,13 +947,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6915254237288135</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="L12">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M12">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -956,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -964,13 +973,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6493506493506493</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -982,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -990,7 +999,7 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6438356164383562</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L14">
         <v>47</v>
@@ -1008,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1016,13 +1025,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6428571428571429</v>
+        <v>0.6581059390048154</v>
       </c>
       <c r="L15">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="M15">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1034,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1042,13 +1051,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6323529411764706</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1060,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1068,13 +1077,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6307692307692307</v>
+        <v>0.6</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1086,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1094,13 +1103,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6197183098591549</v>
+        <v>0.6</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1112,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1120,13 +1129,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6142857142857143</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1138,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1146,13 +1155,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.59375</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1164,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1172,25 +1181,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5789473684210527</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="L21">
+        <v>43</v>
+      </c>
+      <c r="M21">
+        <v>43</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>33</v>
-      </c>
-      <c r="M21">
-        <v>33</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1198,13 +1207,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5555555555555556</v>
+        <v>0.5657142857142857</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1216,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1224,7 +1233,7 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5538461538461539</v>
+        <v>0.5625</v>
       </c>
       <c r="L23">
         <v>36</v>
@@ -1242,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1250,13 +1259,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5485714285714286</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L24">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="M24">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1268,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1276,13 +1285,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5384615384615384</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L25">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1294,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1302,13 +1311,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5277777777777778</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1320,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1328,13 +1337,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5269461077844312</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L27">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="M27">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1346,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1354,13 +1363,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.5192307692307693</v>
+        <v>0.5029940119760479</v>
       </c>
       <c r="L28">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="M28">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1372,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1380,13 +1389,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.5180722891566265</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1398,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1406,13 +1415,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.5131578947368421</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1424,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1432,13 +1441,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="L31">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M31">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1450,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1458,13 +1467,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.4691358024691358</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1476,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1484,13 +1493,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.4337349397590362</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L33">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="M33">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1502,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1510,13 +1519,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.4264705882352941</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1528,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>39</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1536,13 +1545,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.4060150375939849</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L35">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1554,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1562,13 +1571,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.3947368421052632</v>
+        <v>0.3651960784313725</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1580,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>46</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1588,13 +1597,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.3603603603603603</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1606,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1614,13 +1623,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.3579766536964981</v>
+        <v>0.3501945525291829</v>
       </c>
       <c r="L38">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M38">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1632,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1640,13 +1649,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.3553921568627451</v>
+        <v>0.3054794520547945</v>
       </c>
       <c r="L39">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="M39">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1658,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>263</v>
+        <v>507</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1666,13 +1675,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.3333333333333333</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1684,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1692,13 +1701,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.3157894736842105</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L41">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M41">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1710,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>91</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1718,13 +1727,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.3110047846889952</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L42">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1736,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>144</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1744,13 +1753,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.3054794520547945</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L43">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1762,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>507</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1770,13 +1779,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.2949640287769784</v>
+        <v>0.2589928057553957</v>
       </c>
       <c r="L44">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M44">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1788,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1796,13 +1805,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.2649006622516556</v>
+        <v>0.2516556291390729</v>
       </c>
       <c r="L45">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M45">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1814,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1822,13 +1831,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.2435344827586207</v>
+        <v>0.2454251883745963</v>
       </c>
       <c r="L46">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M46">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1837,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1848,13 +1857,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.2185430463576159</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="L47">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="M47">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1866,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>590</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1874,13 +1883,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.2147651006711409</v>
+        <v>0.2073170731707317</v>
       </c>
       <c r="L48">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1892,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1900,13 +1909,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.2006269592476489</v>
+        <v>0.2052980132450331</v>
       </c>
       <c r="L49">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="M49">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1918,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>255</v>
+        <v>600</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1926,13 +1935,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1841432225063939</v>
+        <v>0.1912225705329154</v>
       </c>
       <c r="L50">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="M50">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1944,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>638</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1952,25 +1961,25 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.1567567567567568</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L51">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="M51">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="N51">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>312</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1978,25 +1987,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.1469298245614035</v>
+        <v>0.1513513513513514</v>
       </c>
       <c r="L52">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M52">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>389</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2004,13 +2013,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.1365313653136531</v>
+        <v>0.1439114391143911</v>
       </c>
       <c r="L53">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M53">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2022,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2030,13 +2039,13 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.1295454545454545</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="L54">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M54">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2048,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2056,13 +2065,13 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.1264916467780429</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L55">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="M55">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2074,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>366</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2082,13 +2091,13 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.1222222222222222</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="L56">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="M56">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2100,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>237</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2108,13 +2117,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.121654501216545</v>
+        <v>0.116945107398568</v>
       </c>
       <c r="L57">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M57">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2126,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2134,13 +2143,13 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.09965635738831616</v>
+        <v>0.1143552311435523</v>
       </c>
       <c r="L58">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M58">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2152,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>262</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2160,25 +2169,25 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.08177905308464849</v>
+        <v>0.1074074074074074</v>
       </c>
       <c r="L59">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="M59">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="N59">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>640</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2186,25 +2195,25 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.0765639589169001</v>
+        <v>0.08469945355191257</v>
       </c>
       <c r="L60">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="M60">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="N60">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>989</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2212,25 +2221,25 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.05914972273567468</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="L61">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="M61">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="N61">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O61">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>509</v>
+        <v>990</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2238,25 +2247,103 @@
         <v>70</v>
       </c>
       <c r="K62">
-        <v>0.04770164787510842</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L62">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M62">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="N62">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O62">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>1098</v>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K63">
+        <v>0.06273062730627306</v>
+      </c>
+      <c r="L63">
+        <v>34</v>
+      </c>
+      <c r="M63">
+        <v>34</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K64">
+        <v>0.05961538461538462</v>
+      </c>
+      <c r="L64">
+        <v>31</v>
+      </c>
+      <c r="M64">
+        <v>33</v>
+      </c>
+      <c r="N64">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O64">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K65">
+        <v>0.04679376083188908</v>
+      </c>
+      <c r="L65">
+        <v>54</v>
+      </c>
+      <c r="M65">
+        <v>57</v>
+      </c>
+      <c r="N65">
+        <v>0.95</v>
+      </c>
+      <c r="O65">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
